--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_8_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_8_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46181.49078950371</v>
+        <v>9190116.667111229</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46181.49078950371</v>
+        <v>9190116.667111229</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1844.865867534852</v>
+        <v>112494.5620464802</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1844.865867534852</v>
+        <v>112494.5620464802</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035472862.311527</v>
+        <v>42192259.61088552</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8502.65125371148</v>
+        <v>925919.357272847</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16521.78176242157</v>
+        <v>1775998.859497348</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24540.91227113166</v>
+        <v>2626078.36172185</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32851.11866956703</v>
+        <v>3484856.937885746</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41117.61112860847</v>
+        <v>4334936.440110249</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49384.1035876499</v>
+        <v>5185015.94233475</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57650.59604669133</v>
+        <v>6035095.444559248</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66691.78345522771</v>
+        <v>6920412.499915059</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>75085.56522929846</v>
+        <v>7728766.757071435</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>83612.70619528912</v>
+        <v>8563659.493419586</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>92026.73319978509</v>
+        <v>9413738.995644091</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>100249.5117194326</v>
+        <v>10255119.4239292</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>108516.004178474</v>
+        <v>11105198.92615371</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>116782.4966375154</v>
+        <v>11955278.42837822</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>125048.9890965568</v>
+        <v>12805357.93060273</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>350</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>311</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>39</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>138</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>559</v>
